--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9400E82A-D2AF-4878-A3E3-B3C8F8D68154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,124 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Salary (₦)</t>
+  </si>
+  <si>
+    <t>Joining Year</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>Ada Lovelace</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t>E003</t>
+  </si>
+  <si>
+    <t>Mary Ann</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Port Harcourt</t>
+  </si>
+  <si>
+    <t>E004</t>
+  </si>
+  <si>
+    <t>Femi Ade</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>E005</t>
+  </si>
+  <si>
+    <t>Amina Bello</t>
+  </si>
+  <si>
+    <t>Product Design</t>
+  </si>
+  <si>
+    <t>Kaduna</t>
+  </si>
+  <si>
+    <t>E006</t>
+  </si>
+  <si>
+    <t>Obinna Okoro</t>
+  </si>
+  <si>
+    <t>E007</t>
+  </si>
+  <si>
+    <t>Chidera Onyekachi</t>
+  </si>
+  <si>
+    <t>E008</t>
+  </si>
+  <si>
+    <t>Tola Adebayo</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>E009</t>
+  </si>
+  <si>
+    <t>Ibrahim Musa</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
+    <t>E010</t>
+  </si>
+  <si>
+    <t>Zainab Yusuf</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +452,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>380000</v>
+      </c>
+      <c r="F2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>290000</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>310000</v>
+      </c>
+      <c r="F4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>420000</v>
+      </c>
+      <c r="F5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>350000</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>400000</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>295000</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>320000</v>
+      </c>
+      <c r="F9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>285000</v>
+      </c>
+      <c r="F10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>355000</v>
+      </c>
+      <c r="F11">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9400E82A-D2AF-4878-A3E3-B3C8F8D68154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E47EBA-4D39-473B-8FB5-7F9DD94A4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,8 +142,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -171,8 +179,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,28 +465,28 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -683,5 +692,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E47EBA-4D39-473B-8FB5-7F9DD94A4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1473C51C-24F8-4E66-B4A5-9B95F75A22FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,6 +469,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1473C51C-24F8-4E66-B4A5-9B95F75A22FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD2158-4F75-4A99-89FE-CCC31870ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,15 +467,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD2158-4F75-4A99-89FE-CCC31870ACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24426D1E-4432-42B4-A2D5-23016331B4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,7 +488,7 @@
     <col min="6" max="6" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -518,8 +527,12 @@
       <c r="F2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <f>VLOOKUP(A2, A2:F11, 5, FALSE)</f>
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -539,7 +552,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -559,7 +572,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -579,7 +592,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -599,7 +612,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -619,7 +632,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -639,7 +652,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -659,7 +672,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -679,7 +692,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24426D1E-4432-42B4-A2D5-23016331B4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196EC25A-2A6B-4EC8-9B8A-A8F40D2833CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,16 +196,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,7 +490,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,6 +500,7 @@
     <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -521,13 +536,13 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>380000</v>
       </c>
       <c r="F2">
         <v>2019</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>VLOOKUP(A2, A2:F11, 5, FALSE)</f>
         <v>380000</v>
       </c>
@@ -545,7 +560,7 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>290000</v>
       </c>
       <c r="F3">
@@ -565,7 +580,7 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>310000</v>
       </c>
       <c r="F4">
@@ -585,7 +600,7 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>420000</v>
       </c>
       <c r="F5">
@@ -605,7 +620,7 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>350000</v>
       </c>
       <c r="F6">
@@ -625,7 +640,7 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>400000</v>
       </c>
       <c r="F7">
@@ -645,7 +660,7 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>295000</v>
       </c>
       <c r="F8">
@@ -665,7 +680,7 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>320000</v>
       </c>
       <c r="F9">
@@ -685,7 +700,7 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>285000</v>
       </c>
       <c r="F10">
@@ -705,7 +720,7 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>355000</v>
       </c>
       <c r="F11">

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196EC25A-2A6B-4EC8-9B8A-A8F40D2833CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5DB43F-AD89-4533-9355-E8BE06138BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Employee ID</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Zainab Yusuf</t>
+  </si>
+  <si>
+    <t>Find the Salary of employee E001</t>
   </si>
 </sst>
 </file>
@@ -200,12 +203,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,10 +548,7 @@
       <c r="F2">
         <v>2019</v>
       </c>
-      <c r="H2" s="2">
-        <f>VLOOKUP(A2, A2:F11, 5, FALSE)</f>
-        <v>380000</v>
-      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -727,7 +730,16 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5DB43F-AD89-4533-9355-E8BE06138BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB040CC2-B56F-4FB9-8658-B2016AB3246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,6 +735,10 @@
         <v>37</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="C15" s="2">
+        <f xml:space="preserve"> VLOOKUP(A2, A2:F11, 5, FALSE)</f>
+        <v>380000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB040CC2-B56F-4FB9-8658-B2016AB3246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A8135-867B-405E-891F-B5DAA2DFF531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Employee ID</t>
   </si>
@@ -148,6 +148,32 @@
   </si>
   <si>
     <t>Find the Salary of employee E001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Department</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of a staff member by typing their name:</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -203,12 +229,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,18 +760,27 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2">
         <f xml:space="preserve"> VLOOKUP(A2, A2:F11, 5, FALSE)</f>
         <v>380000</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A8135-867B-405E-891F-B5DAA2DFF531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106BA41-B4C2-4A26-ACD1-A2B325DB9E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,30 +150,7 @@
     <t>Find the Salary of employee E001</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Find the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Department</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of a staff member by typing their name:</t>
-    </r>
+    <t>Find the Department of a staff member by typing their name</t>
   </si>
 </sst>
 </file>
@@ -229,15 +206,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,7 +499,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,10 +734,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="2">
         <f xml:space="preserve"> VLOOKUP(A2, A2:F11, 5, FALSE)</f>
         <v>380000</v>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106BA41-B4C2-4A26-ACD1-A2B325DB9E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0ABF58-BADA-4AD2-AEA4-C848C6645599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <t>Find the Salary of employee E001</t>
   </si>
   <si>
-    <t>Find the Department of a staff member by typing their name</t>
+    <t>Find the Department of a staff member</t>
   </si>
 </sst>
 </file>
@@ -206,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +215,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -499,7 +500,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,12 +750,12 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0ABF58-BADA-4AD2-AEA4-C848C6645599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C41ABEA-17C6-45B2-A1EB-28801084EAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -508,6 +508,7 @@
     <col min="1" max="1" width="12.54296875" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
@@ -750,7 +751,10 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="str">
+        <f xml:space="preserve"> VLOOKUP("E009", A2:F11, 3, FALSE)</f>
+        <v>IT Support</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C41ABEA-17C6-45B2-A1EB-28801084EAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AE8A8-773A-41C5-9AA5-05DBA60C6397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Employee ID</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Find the Department of a staff member</t>
+  </si>
+  <si>
+    <t>Salary Min</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -497,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,9 +527,11 @@
     <col min="5" max="5" width="11.1796875" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +550,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -554,8 +577,14 @@
         <v>2019</v>
       </c>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -574,8 +603,14 @@
       <c r="F3">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>300000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -594,8 +629,14 @@
       <c r="F4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J4">
+        <v>400000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -615,7 +656,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -635,7 +676,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -655,7 +696,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -675,7 +716,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -695,7 +736,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -715,7 +756,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -735,7 +776,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -745,7 +786,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AE8A8-773A-41C5-9AA5-05DBA60C6397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AECFFF7-A4A6-49A4-A727-58DADBC2523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Employee ID</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>Salary Range</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,6 +529,7 @@
     <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.453125" customWidth="1"/>
     <col min="11" max="11" width="11.90625" customWidth="1"/>
@@ -549,6 +553,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>39</v>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AECFFF7-A4A6-49A4-A727-58DADBC2523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4E8DFF-9541-47C9-ACC1-BFC5BF41227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,6 +583,10 @@
       <c r="F2">
         <v>2019</v>
       </c>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> VLOOKUP(J2, J2:K4, 2, FALSE)</f>
+        <v>Low</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="J2">
         <v>0</v>
@@ -610,6 +614,10 @@
       <c r="F3">
         <v>2020</v>
       </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G11" si="0" xml:space="preserve"> VLOOKUP(J3, J3:K5, 2, FALSE)</f>
+        <v>Medium</v>
+      </c>
       <c r="J3">
         <v>300000</v>
       </c>
@@ -636,6 +644,10 @@
       <c r="F4">
         <v>2021</v>
       </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
       <c r="J4">
         <v>400000</v>
       </c>
@@ -662,6 +674,10 @@
       <c r="F5">
         <v>2018</v>
       </c>
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -682,6 +698,10 @@
       <c r="F6">
         <v>2022</v>
       </c>
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -702,6 +722,10 @@
       <c r="F7">
         <v>2021</v>
       </c>
+      <c r="G7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -722,6 +746,10 @@
       <c r="F8">
         <v>2020</v>
       </c>
+      <c r="G8" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -742,6 +770,10 @@
       <c r="F9">
         <v>2023</v>
       </c>
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -762,6 +794,10 @@
       <c r="F10">
         <v>2019</v>
       </c>
+      <c r="G10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -781,6 +817,10 @@
       </c>
       <c r="F11">
         <v>2021</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4E8DFF-9541-47C9-ACC1-BFC5BF41227A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF0193E-A0F7-4417-9377-F14ACA42C2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,8 +584,8 @@
         <v>2019</v>
       </c>
       <c r="G2" t="str">
-        <f xml:space="preserve"> VLOOKUP(J2, J2:K4, 2, FALSE)</f>
-        <v>Low</v>
+        <f xml:space="preserve"> VLOOKUP(E2, $J$2:$K$4, 2, TRUE)</f>
+        <v>Medium</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2">
@@ -615,8 +615,8 @@
         <v>2020</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" si="0" xml:space="preserve"> VLOOKUP(J3, J3:K5, 2, FALSE)</f>
-        <v>Medium</v>
+        <f t="shared" ref="G3:G11" si="0" xml:space="preserve"> VLOOKUP(E3, $J$2:$K$4, 2, TRUE)</f>
+        <v>Low</v>
       </c>
       <c r="J3">
         <v>300000</v>
@@ -646,7 +646,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="J4">
         <v>400000</v>
@@ -674,9 +674,9 @@
       <c r="F5">
         <v>2018</v>
       </c>
-      <c r="G5" t="e">
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>High</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -698,9 +698,9 @@
       <c r="F6">
         <v>2022</v>
       </c>
-      <c r="G6" t="e">
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>Medium</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -722,9 +722,9 @@
       <c r="F7">
         <v>2021</v>
       </c>
-      <c r="G7" t="e">
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>High</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -746,9 +746,9 @@
       <c r="F8">
         <v>2020</v>
       </c>
-      <c r="G8" t="e">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>Low</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -770,9 +770,9 @@
       <c r="F9">
         <v>2023</v>
       </c>
-      <c r="G9" t="e">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>Medium</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -794,9 +794,9 @@
       <c r="F10">
         <v>2019</v>
       </c>
-      <c r="G10" t="e">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>Low</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -818,9 +818,9 @@
       <c r="F11">
         <v>2021</v>
       </c>
-      <c r="G11" t="e">
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>Medium</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF0193E-A0F7-4417-9377-F14ACA42C2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5466013D-85E3-4E5A-B3DA-5F904C1FCF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Employee ID</t>
   </si>
@@ -169,6 +169,36 @@
   </si>
   <si>
     <t>Salary Range</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Ada</t>
+  </si>
+  <si>
+    <t>Bola</t>
+  </si>
+  <si>
+    <t>Chidi</t>
   </si>
 </sst>
 </file>
@@ -515,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,7 +565,7 @@
     <col min="11" max="11" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -595,7 +625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -625,7 +655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -655,7 +685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -679,7 +709,7 @@
         <v>High</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -703,7 +733,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -726,8 +756,20 @@
         <f t="shared" si="0"/>
         <v>High</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -750,8 +792,20 @@
         <f t="shared" si="0"/>
         <v>Low</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>1001</v>
+      </c>
+      <c r="K8">
+        <v>1002</v>
+      </c>
+      <c r="L8">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -774,8 +828,20 @@
         <f t="shared" si="0"/>
         <v>Medium</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -798,8 +864,20 @@
         <f t="shared" si="0"/>
         <v>Low</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>450000</v>
+      </c>
+      <c r="K10">
+        <v>320000</v>
+      </c>
+      <c r="L10">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -823,7 +901,7 @@
         <v>Medium</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -833,7 +911,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5466013D-85E3-4E5A-B3DA-5F904C1FCF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6306E-42D6-4B38-9D1F-063CB032349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,6 +901,12 @@
         <v>Medium</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <f xml:space="preserve"> HLOOKUP(J8, I8:L10, 3, FALSE)</f>
+        <v>450000</v>
+      </c>
+    </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>37</v>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6306E-42D6-4B38-9D1F-063CB032349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0C3B67-3098-4A3C-B228-7E39B7402F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Employee ID</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Chidi</t>
+  </si>
+  <si>
+    <t>Find the Salary for the ID</t>
   </si>
 </sst>
 </file>
@@ -254,12 +257,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,7 +554,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +566,7 @@
     <col min="5" max="5" width="11.1796875" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" customWidth="1"/>
     <col min="7" max="7" width="13.26953125" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.453125" customWidth="1"/>
     <col min="11" max="11" width="11.90625" customWidth="1"/>
   </cols>
@@ -902,36 +908,41 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I13">
+      <c r="G13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2">
         <f xml:space="preserve"> HLOOKUP(J8, I8:L10, 3, FALSE)</f>
         <v>450000</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2">
         <f xml:space="preserve"> VLOOKUP(A2, A2:F11, 5, FALSE)</f>
         <v>380000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="str">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="str">
         <f xml:space="preserve"> VLOOKUP("E009", A2:F11, 3, FALSE)</f>
         <v>IT Support</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
+++ b/stage_2/Lookup_Functions (Part 1)/Lookup_functions(Part 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Lookup_Functions (Part 1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0C3B67-3098-4A3C-B228-7E39B7402F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAA0035-45D5-420E-91EB-5FF099152154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,15 +257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,7 +551,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -918,22 +915,22 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="2">
         <f xml:space="preserve"> VLOOKUP(A2, A2:F11, 5, FALSE)</f>
         <v>380000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5" t="str">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="str">
         <f xml:space="preserve"> VLOOKUP("E009", A2:F11, 3, FALSE)</f>
         <v>IT Support</v>
       </c>
